--- a/EssilorLuxottica Projects/LUX - 01 - Retrieve Vendor Master Data Reports/Data/Config.xlsx
+++ b/EssilorLuxottica Projects/LUX - 01 - Retrieve Vendor Master Data Reports/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Retrieve Vendor Open Item Reports\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Retrieve Vendor Master Data Reports\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833A17EF-A091-47F6-B8C1-B1D00F80937A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E968F879-BC49-4049-93F7-CFB3F3D44A9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
   <si>
     <t>Name</t>
   </si>
@@ -204,18 +204,6 @@
     <t>strVendorOpenItemsReport_SAP_Report_Queue</t>
   </si>
   <si>
-    <t>strReportsDetailFileName</t>
-  </si>
-  <si>
-    <t>ReportsDetail.xlsx</t>
-  </si>
-  <si>
-    <t>C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Retrieve Vendor Open Item Reports\Data</t>
-  </si>
-  <si>
-    <t>strReportsDetailFilePath</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
@@ -243,16 +231,25 @@
     <t>ZRXOVENDOR</t>
   </si>
   <si>
-    <t>strVendorOpenItemInputPath</t>
-  </si>
-  <si>
-    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\LUX-01-Vendor Open Items Report\Input\</t>
-  </si>
-  <si>
-    <t>LUX-01_LoadVendorOpenItems</t>
-  </si>
-  <si>
-    <t>strLoadVendorOpenItemsQueue</t>
+    <t>LUX-01_EditVendorOpenItemsSummary</t>
+  </si>
+  <si>
+    <t>strEditVendorOpenItemsSummary</t>
+  </si>
+  <si>
+    <t>strVendorOpenItemOutputPath</t>
+  </si>
+  <si>
+    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\LUX-01-Vendor Open Items Report\Output\</t>
+  </si>
+  <si>
+    <t>strVendorMasterDataAFSTCode</t>
+  </si>
+  <si>
+    <t>strVendorReportSheet</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
 </sst>
 </file>
@@ -644,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -705,10 +702,10 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -749,7 +746,7 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>55</v>
@@ -765,18 +762,18 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
         <v>61</v>
+      </c>
+      <c r="B12" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -784,56 +781,49 @@
         <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="4" t="b">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" t="s">
-        <v>64</v>
+        <v>73</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1797,8 +1787,6 @@
     <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" xr:uid="{E6FD6AF5-9690-4FA1-BD02-DD4889532695}"/>
@@ -3080,10 +3068,10 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/EssilorLuxottica Projects/LUX - 01 - Retrieve Vendor Master Data Reports/Data/Config.xlsx
+++ b/EssilorLuxottica Projects/LUX - 01 - Retrieve Vendor Master Data Reports/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Retrieve Vendor Master Data Reports\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E968F879-BC49-4049-93F7-CFB3F3D44A9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA27FB35-C54A-4FFA-A5C6-9023D60E7387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
   <si>
     <t>Name</t>
   </si>
@@ -250,6 +250,48 @@
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>Vendor_Code</t>
+  </si>
+  <si>
+    <t>Industry_Key_Name</t>
+  </si>
+  <si>
+    <t>Company Code</t>
+  </si>
+  <si>
+    <t>Company Code,Vendor,Name 1,Indus.,Industry Name,Pmt. Method,PayT Accounting</t>
+  </si>
+  <si>
+    <t>C.Code</t>
+  </si>
+  <si>
+    <t>C.Code,Vendor,Name,Industry key,Industry Name,Payment Terms,Payment Methods</t>
+  </si>
+  <si>
+    <t>strAFSColumn</t>
+  </si>
+  <si>
+    <t>strAFSColumns</t>
+  </si>
+  <si>
+    <t>strFMSColumn</t>
+  </si>
+  <si>
+    <t>strFMSColumns</t>
+  </si>
+  <si>
+    <t>strNewColumnName</t>
+  </si>
+  <si>
+    <t>strNewColumnName1</t>
+  </si>
+  <si>
+    <t>strRange</t>
+  </si>
+  <si>
+    <t>strSheetName</t>
   </si>
 </sst>
 </file>
@@ -316,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -326,6 +368,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -641,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z995"/>
+  <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -808,22 +851,78 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1780,13 +1879,6 @@
     <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" xr:uid="{E6FD6AF5-9690-4FA1-BD02-DD4889532695}"/>

--- a/EssilorLuxottica Projects/LUX - 01 - Retrieve Vendor Master Data Reports/Data/Config.xlsx
+++ b/EssilorLuxottica Projects/LUX - 01 - Retrieve Vendor Master Data Reports/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Retrieve Vendor Master Data Reports\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Retrieve Vendor Master Data Reports\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA27FB35-C54A-4FFA-A5C6-9023D60E7387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4B5C80-A6E0-462A-8826-8DECDA0C4DDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>Name</t>
   </si>
@@ -180,9 +180,6 @@
     <t>strComponentRoot</t>
   </si>
   <si>
-    <t>C:\EssilorLuxottica Projects\Components\</t>
-  </si>
-  <si>
     <t>strVendorReportTCode</t>
   </si>
   <si>
@@ -292,6 +289,15 @@
   </si>
   <si>
     <t>strSheetName</t>
+  </si>
+  <si>
+    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\Components\</t>
+  </si>
+  <si>
+    <t>Ess.LUX-01_StrTempFolderPath</t>
+  </si>
+  <si>
+    <t>strTempFolderPath</t>
   </si>
 </sst>
 </file>
@@ -358,7 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -369,6 +375,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -687,7 +694,7 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -734,10 +741,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>43</v>
@@ -745,10 +752,10 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -775,45 +782,45 @@
       <c r="A7" t="s">
         <v>51</v>
       </c>
-      <c r="B7" t="s">
-        <v>52</v>
+      <c r="B7" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="4" t="b">
         <v>1</v>
@@ -821,98 +828,98 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
         <v>74</v>
-      </c>
-      <c r="B16" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1882,9 +1889,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" xr:uid="{E6FD6AF5-9690-4FA1-BD02-DD4889532695}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{B553E298-7582-45D6-9307-3A91459793EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3107,7 +3115,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3160,13 +3168,20 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
         <v>65</v>
       </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+    </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
